--- a/data/trans_orig/Q23_1_2015-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q23_1_2015-Edad-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>15,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>15,94</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 16,59</t>
+          <t>15,32; 16,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,44; 16,4</t>
+          <t>15,47; 16,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,14 +664,14 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,59; 16,33</t>
+          <t>15,52; 16,3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>16,71</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>16,78</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,1; 17,31</t>
+          <t>16,09; 17,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,32</t>
+          <t>16,4; 17,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,14 +744,14 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 17,12</t>
+          <t>16,41; 17,15</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>16,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>17,03</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,37</t>
+          <t>16,42; 17,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,61</t>
+          <t>16,86; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,33</t>
+          <t>16,76; 17,37</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>16,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>17,48</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>17,0</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,76</t>
+          <t>16,19; 17,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,86</t>
+          <t>17,15; 17,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,14 +904,14 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,93; 17,65</t>
+          <t>16,39; 17,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 16,74</t>
+          <t>16,12; 16,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,05</t>
+          <t>17,24; 18,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,14 +984,14 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,14</t>
+          <t>16,63; 17,15</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,44</t>
+          <t>16,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>16,37</t>
+          <t>16,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,56</t>
+          <t>22,94</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>19,25</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>17,19</t>
         </is>
       </c>
     </row>
@@ -1039,39 +1039,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 17,02</t>
+          <t>15,95; 17,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,1; 16,68</t>
+          <t>15,98; 16,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 24,86</t>
+          <t>20,95; 25,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,65; 20,7</t>
+          <t>18,5; 20,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,99; 18,2</t>
+          <t>17,31; 18,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,51</t>
+          <t>16,83; 17,66</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1081,27 +1081,27 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,49</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,64</t>
+          <t>16,44</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>20,64</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>20,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>16,98</t>
+          <t>16,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1119,44 +1119,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>15,56; 17,74</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15,99; 17,01</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>18,82; 23,07</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18,49; 24,44</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15,85; 17,85</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16,47; 17,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16,49</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>17,67</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17,46</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>16,98</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16,9</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,31; 16,67</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>16,46; 16,84</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 16,8</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>17,43; 17,95</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 17,66</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>17,26; 17,69</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>16,82; 17,14</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>16,85; 17,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 17,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
@@ -1167,6 +1247,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
